--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_20_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_20_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60685.49078950372</v>
+        <v>12076412.66711122</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60685.49078950372</v>
+        <v>12076412.66711122</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1516.531894586956</v>
+        <v>126374.2434257784</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1516.531894586956</v>
+        <v>126374.2434257784</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189525802.923454</v>
+        <v>49089121.28221541</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10273.29571798566</v>
+        <v>1154261.444636325</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19388.47240175067</v>
+        <v>2129009.134480069</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28503.64908551567</v>
+        <v>3103756.824323814</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37626.9240439114</v>
+        <v>4079063.638565135</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46747.82324473139</v>
+        <v>5053897.677048881</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>55868.72244555139</v>
+        <v>6028731.715532624</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>64989.62164637138</v>
+        <v>7003565.754016365</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74110.52084719136</v>
+        <v>7978399.792500106</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83219.65959449248</v>
+        <v>8946766.870584786</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>92312.58994176507</v>
+        <v>9921141.098839745</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>101405.5202890377</v>
+        <v>10895515.32709471</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>110487.4754058638</v>
+        <v>11869560.88086088</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>119571.8062802657</v>
+        <v>12844079.21038463</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>128691.8853357688</v>
+        <v>13813717.80704201</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>137843.8853068413</v>
+        <v>14778389.54632833</v>
       </c>
     </row>
   </sheetData>
